--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H2">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I2">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J2">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.323061248233205</v>
+        <v>0.3363556666666667</v>
       </c>
       <c r="N2">
-        <v>0.323061248233205</v>
+        <v>1.009067</v>
       </c>
       <c r="O2">
-        <v>0.01108002002427578</v>
+        <v>0.01004222540086594</v>
       </c>
       <c r="P2">
-        <v>0.01108002002427578</v>
+        <v>0.01004222540086594</v>
       </c>
       <c r="Q2">
-        <v>14.21478190662102</v>
+        <v>16.30799427604166</v>
       </c>
       <c r="R2">
-        <v>14.21478190662102</v>
+        <v>146.771948484375</v>
       </c>
       <c r="S2">
-        <v>0.008526909837556673</v>
+        <v>0.00780930572954914</v>
       </c>
       <c r="T2">
-        <v>0.008526909837556673</v>
+        <v>0.007809305729549137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H3">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I3">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J3">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.44810560934447</v>
+        <v>5.511159333333334</v>
       </c>
       <c r="N3">
-        <v>5.44810560934447</v>
+        <v>16.533478</v>
       </c>
       <c r="O3">
-        <v>0.1868534823536952</v>
+        <v>0.1645410193141369</v>
       </c>
       <c r="P3">
-        <v>0.1868534823536952</v>
+        <v>0.1645410193141369</v>
       </c>
       <c r="Q3">
-        <v>239.7181137155974</v>
+        <v>267.2051158020834</v>
       </c>
       <c r="R3">
-        <v>239.7181137155974</v>
+        <v>2404.84604221875</v>
       </c>
       <c r="S3">
-        <v>0.1437978264815986</v>
+        <v>0.127954818138711</v>
       </c>
       <c r="T3">
-        <v>0.1437978264815986</v>
+        <v>0.127954818138711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H4">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I4">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J4">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.2808310856339</v>
+        <v>26.26335166666667</v>
       </c>
       <c r="N4">
-        <v>22.2808310856339</v>
+        <v>78.790055</v>
       </c>
       <c r="O4">
-        <v>0.7641648632773272</v>
+        <v>0.784117894705331</v>
       </c>
       <c r="P4">
-        <v>0.7641648632773272</v>
+        <v>0.7841178947053309</v>
       </c>
       <c r="Q4">
-        <v>980.3625668898629</v>
+        <v>1273.362190963541</v>
       </c>
       <c r="R4">
-        <v>980.3625668898629</v>
+        <v>11460.25971867187</v>
       </c>
       <c r="S4">
-        <v>0.588082411035218</v>
+        <v>0.6097668717171325</v>
       </c>
       <c r="T4">
-        <v>0.588082411035218</v>
+        <v>0.6097668717171324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H5">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I5">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J5">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.10510173038051</v>
+        <v>1.383269666666667</v>
       </c>
       <c r="N5">
-        <v>1.10510173038051</v>
+        <v>4.149809</v>
       </c>
       <c r="O5">
-        <v>0.03790163434470175</v>
+        <v>0.04129886057966625</v>
       </c>
       <c r="P5">
-        <v>0.03790163434470175</v>
+        <v>0.04129886057966624</v>
       </c>
       <c r="Q5">
-        <v>48.62477368579013</v>
+        <v>67.06696524479167</v>
       </c>
       <c r="R5">
-        <v>48.62477368579013</v>
+        <v>603.602687203125</v>
       </c>
       <c r="S5">
-        <v>0.0291681619749092</v>
+        <v>0.03211593204438812</v>
       </c>
       <c r="T5">
-        <v>0.0291681619749092</v>
+        <v>0.03211593204438811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H6">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I6">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J6">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.323061248233205</v>
+        <v>0.3363556666666667</v>
       </c>
       <c r="N6">
-        <v>0.323061248233205</v>
+        <v>1.009067</v>
       </c>
       <c r="O6">
-        <v>0.01108002002427578</v>
+        <v>0.01004222540086594</v>
       </c>
       <c r="P6">
-        <v>0.01108002002427578</v>
+        <v>0.01004222540086594</v>
       </c>
       <c r="Q6">
-        <v>3.65874706428141</v>
+        <v>3.858499769661556</v>
       </c>
       <c r="R6">
-        <v>3.65874706428141</v>
+        <v>34.726497926954</v>
       </c>
       <c r="S6">
-        <v>0.002194743932090952</v>
+        <v>0.001847695298921568</v>
       </c>
       <c r="T6">
-        <v>0.002194743932090952</v>
+        <v>0.001847695298921567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H7">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I7">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J7">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.44810560934447</v>
+        <v>5.511159333333334</v>
       </c>
       <c r="N7">
-        <v>5.44810560934447</v>
+        <v>16.533478</v>
       </c>
       <c r="O7">
-        <v>0.1868534823536952</v>
+        <v>0.1645410193141369</v>
       </c>
       <c r="P7">
-        <v>0.1868534823536952</v>
+        <v>0.1645410193141369</v>
       </c>
       <c r="Q7">
-        <v>61.7011186364734</v>
+        <v>63.22119448431513</v>
       </c>
       <c r="R7">
-        <v>61.7011186364734</v>
+        <v>568.9907503588361</v>
       </c>
       <c r="S7">
-        <v>0.03701216655631825</v>
+        <v>0.03027433220531756</v>
       </c>
       <c r="T7">
-        <v>0.03701216655631825</v>
+        <v>0.03027433220531755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H8">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I8">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J8">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.2808310856339</v>
+        <v>26.26335166666667</v>
       </c>
       <c r="N8">
-        <v>22.2808310856339</v>
+        <v>78.790055</v>
       </c>
       <c r="O8">
-        <v>0.7641648632773272</v>
+        <v>0.784117894705331</v>
       </c>
       <c r="P8">
-        <v>0.7641648632773272</v>
+        <v>0.7841178947053309</v>
       </c>
       <c r="Q8">
-        <v>252.3358210560341</v>
+        <v>301.2797059750455</v>
       </c>
       <c r="R8">
-        <v>252.3358210560341</v>
+        <v>2711.51735377541</v>
       </c>
       <c r="S8">
-        <v>0.1513667117135603</v>
+        <v>0.1442719008998131</v>
       </c>
       <c r="T8">
-        <v>0.1513667117135603</v>
+        <v>0.1442719008998131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H9">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I9">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J9">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.10510173038051</v>
+        <v>1.383269666666667</v>
       </c>
       <c r="N9">
-        <v>1.10510173038051</v>
+        <v>4.149809</v>
       </c>
       <c r="O9">
-        <v>0.03790163434470175</v>
+        <v>0.04129886057966625</v>
       </c>
       <c r="P9">
-        <v>0.03790163434470175</v>
+        <v>0.04129886057966624</v>
       </c>
       <c r="Q9">
-        <v>12.51554537684232</v>
+        <v>15.86816045975089</v>
       </c>
       <c r="R9">
-        <v>12.51554537684232</v>
+        <v>142.813444137758</v>
       </c>
       <c r="S9">
-        <v>0.007507602135385256</v>
+        <v>0.007598685301097362</v>
       </c>
       <c r="T9">
-        <v>0.007507602135385256</v>
+        <v>0.00759868530109736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H10">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I10">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J10">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.323061248233205</v>
+        <v>0.3363556666666667</v>
       </c>
       <c r="N10">
-        <v>0.323061248233205</v>
+        <v>1.009067</v>
       </c>
       <c r="O10">
-        <v>0.01108002002427578</v>
+        <v>0.01004222540086594</v>
       </c>
       <c r="P10">
-        <v>0.01108002002427578</v>
+        <v>0.01004222540086594</v>
       </c>
       <c r="Q10">
-        <v>0.1078323595372232</v>
+        <v>0.1198879229813333</v>
       </c>
       <c r="R10">
-        <v>0.1078323595372232</v>
+        <v>1.078991306832</v>
       </c>
       <c r="S10">
-        <v>6.468455255839122E-05</v>
+        <v>5.740996887749216E-05</v>
       </c>
       <c r="T10">
-        <v>6.468455255839122E-05</v>
+        <v>5.740996887749214E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H11">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I11">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J11">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.44810560934447</v>
+        <v>5.511159333333334</v>
       </c>
       <c r="N11">
-        <v>5.44810560934447</v>
+        <v>16.533478</v>
       </c>
       <c r="O11">
-        <v>0.1868534823536952</v>
+        <v>0.1645410193141369</v>
       </c>
       <c r="P11">
-        <v>0.1868534823536952</v>
+        <v>0.1645410193141369</v>
       </c>
       <c r="Q11">
-        <v>1.818485151272354</v>
+        <v>1.964353543498667</v>
       </c>
       <c r="R11">
-        <v>1.818485151272354</v>
+        <v>17.679181891488</v>
       </c>
       <c r="S11">
-        <v>0.001090840438333597</v>
+        <v>0.0009406575157216533</v>
       </c>
       <c r="T11">
-        <v>0.001090840438333597</v>
+        <v>0.0009406575157216531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H12">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I12">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J12">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.2808310856339</v>
+        <v>26.26335166666667</v>
       </c>
       <c r="N12">
-        <v>22.2808310856339</v>
+        <v>78.790055</v>
       </c>
       <c r="O12">
-        <v>0.7641648632773272</v>
+        <v>0.784117894705331</v>
       </c>
       <c r="P12">
-        <v>0.7641648632773272</v>
+        <v>0.7841178947053309</v>
       </c>
       <c r="Q12">
-        <v>7.436963119389286</v>
+        <v>9.361098961253333</v>
       </c>
       <c r="R12">
-        <v>7.436963119389286</v>
+        <v>84.24989065128</v>
       </c>
       <c r="S12">
-        <v>0.004461152791568984</v>
+        <v>0.004482690054680111</v>
       </c>
       <c r="T12">
-        <v>0.004461152791568984</v>
+        <v>0.00448269005468011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H13">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I13">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J13">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.10510173038051</v>
+        <v>1.383269666666667</v>
       </c>
       <c r="N13">
-        <v>1.10510173038051</v>
+        <v>4.149809</v>
       </c>
       <c r="O13">
-        <v>0.03790163434470175</v>
+        <v>0.04129886057966625</v>
       </c>
       <c r="P13">
-        <v>0.03790163434470175</v>
+        <v>0.04129886057966624</v>
       </c>
       <c r="Q13">
-        <v>0.3688641945368131</v>
+        <v>0.4930415738293334</v>
       </c>
       <c r="R13">
-        <v>0.3688641945368131</v>
+        <v>4.437374164464001</v>
       </c>
       <c r="S13">
-        <v>0.0002212676740156915</v>
+        <v>0.000236099689651467</v>
       </c>
       <c r="T13">
-        <v>0.0002212676740156915</v>
+        <v>0.000236099689651467</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H14">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I14">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J14">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.323061248233205</v>
+        <v>0.3363556666666667</v>
       </c>
       <c r="N14">
-        <v>0.323061248233205</v>
+        <v>1.009067</v>
       </c>
       <c r="O14">
-        <v>0.01108002002427578</v>
+        <v>0.01004222540086594</v>
       </c>
       <c r="P14">
-        <v>0.01108002002427578</v>
+        <v>0.01004222540086594</v>
       </c>
       <c r="Q14">
-        <v>0.4895819733544961</v>
+        <v>0.6845673099905555</v>
       </c>
       <c r="R14">
-        <v>0.4895819733544961</v>
+        <v>6.161105789914999</v>
       </c>
       <c r="S14">
-        <v>0.000293681702069758</v>
+        <v>0.0003278144035177381</v>
       </c>
       <c r="T14">
-        <v>0.000293681702069758</v>
+        <v>0.0003278144035177381</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H15">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I15">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J15">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.44810560934447</v>
+        <v>5.511159333333334</v>
       </c>
       <c r="N15">
-        <v>5.44810560934447</v>
+        <v>16.533478</v>
       </c>
       <c r="O15">
-        <v>0.1868534823536952</v>
+        <v>0.1645410193141369</v>
       </c>
       <c r="P15">
-        <v>0.1868534823536952</v>
+        <v>0.1645410193141369</v>
       </c>
       <c r="Q15">
-        <v>8.256311488467823</v>
+        <v>11.21657784790111</v>
       </c>
       <c r="R15">
-        <v>8.256311488467823</v>
+        <v>100.94920063111</v>
       </c>
       <c r="S15">
-        <v>0.004952648877444742</v>
+        <v>0.005371211454386723</v>
       </c>
       <c r="T15">
-        <v>0.004952648877444742</v>
+        <v>0.005371211454386722</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H16">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I16">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J16">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.2808310856339</v>
+        <v>26.26335166666667</v>
       </c>
       <c r="N16">
-        <v>22.2808310856339</v>
+        <v>78.790055</v>
       </c>
       <c r="O16">
-        <v>0.7641648632773272</v>
+        <v>0.784117894705331</v>
       </c>
       <c r="P16">
-        <v>0.7641648632773272</v>
+        <v>0.7841178947053309</v>
       </c>
       <c r="Q16">
-        <v>33.76540303282857</v>
+        <v>53.45244270733055</v>
       </c>
       <c r="R16">
-        <v>33.76540303282857</v>
+        <v>481.071984365975</v>
       </c>
       <c r="S16">
-        <v>0.02025458773698004</v>
+        <v>0.02559643203370517</v>
       </c>
       <c r="T16">
-        <v>0.02025458773698004</v>
+        <v>0.02559643203370517</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H17">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I17">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J17">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.10510173038051</v>
+        <v>1.383269666666667</v>
       </c>
       <c r="N17">
-        <v>1.10510173038051</v>
+        <v>4.149809</v>
       </c>
       <c r="O17">
-        <v>0.03790163434470175</v>
+        <v>0.04129886057966625</v>
       </c>
       <c r="P17">
-        <v>0.03790163434470175</v>
+        <v>0.04129886057966624</v>
       </c>
       <c r="Q17">
-        <v>1.674722328586451</v>
+        <v>2.815297283633889</v>
       </c>
       <c r="R17">
-        <v>1.674722328586451</v>
+        <v>25.337675552705</v>
       </c>
       <c r="S17">
-        <v>0.001004602560391597</v>
+        <v>0.001348143544529294</v>
       </c>
       <c r="T17">
-        <v>0.001004602560391597</v>
+        <v>0.001348143544529294</v>
       </c>
     </row>
   </sheetData>
